--- a/app/modules/common/FEAT/F16/linz_ag/Database-Overview.xlsx
+++ b/app/modules/common/FEAT/F16/linz_ag/Database-Overview.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4308" uniqueCount="1925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4261" uniqueCount="1877">
   <si>
     <t>ID</t>
   </si>
@@ -5609,193 +5609,49 @@
     <t>AT</t>
   </si>
   <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>CY</t>
-  </si>
-  <si>
-    <t>CZ</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>FI</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>HU</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>LU</t>
-  </si>
-  <si>
-    <t>LV</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>NL</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>EL</t>
+    <t>LZ</t>
+  </si>
+  <si>
+    <t>LZN</t>
+  </si>
+  <si>
+    <t>LZB</t>
   </si>
   <si>
     <t>Austria</t>
   </si>
   <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>DE-2016</t>
-  </si>
-  <si>
-    <t>DE-2017</t>
-  </si>
-  <si>
-    <t>FR-2016</t>
-  </si>
-  <si>
-    <t>FR-2017</t>
-  </si>
-  <si>
-    <t>LU-2016</t>
-  </si>
-  <si>
-    <t>LU-2017</t>
+    <t>Linz (No Nuc Low C02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Linz (Base Szenario)</t>
   </si>
   <si>
     <t>AT-2016</t>
   </si>
   <si>
     <t>AT-2017</t>
+  </si>
+  <si>
+    <t>LZ-2017</t>
+  </si>
+  <si>
+    <t>LZN-1</t>
+  </si>
+  <si>
+    <t>LZN-2</t>
+  </si>
+  <si>
+    <t>LZN-3</t>
+  </si>
+  <si>
+    <t>LZB-1</t>
+  </si>
+  <si>
+    <t>LZB-2</t>
+  </si>
+  <si>
+    <t>LZB-3</t>
   </si>
 </sst>
 </file>
@@ -52017,7 +51873,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -52039,7 +51895,7 @@
         <v>1861</v>
       </c>
       <c r="C2" t="s">
-        <v>1889</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -52047,10 +51903,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1862</v>
+        <v>262</v>
       </c>
       <c r="C3" t="s">
-        <v>1890</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -52058,10 +51914,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="C4" t="s">
-        <v>1891</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -52069,10 +51925,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="C5" t="s">
-        <v>1892</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -52080,274 +51936,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C6" t="s">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1866</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
         <v>1867</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1868</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1870</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1871</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1872</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1873</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1874</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1875</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1876</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1877</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1878</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1880</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1881</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1882</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1884</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1913</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1886</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1887</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1888</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>262</v>
-      </c>
-      <c r="C30" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -52357,7 +51949,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -52379,7 +51971,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1917</v>
+        <v>1868</v>
       </c>
       <c r="C2">
         <v>104.96</v>
@@ -52393,7 +51985,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1918</v>
+        <v>1869</v>
       </c>
       <c r="C3">
         <v>163.52</v>
@@ -52407,13 +51999,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1919</v>
+        <v>1707</v>
       </c>
       <c r="C4">
-        <v>874.01</v>
+        <v>127.59</v>
       </c>
       <c r="D4">
-        <v>321493.39</v>
+        <v>307021.64</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -52421,13 +52013,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1920</v>
+        <v>1870</v>
       </c>
       <c r="C5">
-        <v>206.12</v>
+        <v>75.25</v>
       </c>
       <c r="D5">
-        <v>393896.12</v>
+        <v>293376.51</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -52435,13 +52027,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1921</v>
+        <v>1871</v>
       </c>
       <c r="C6">
-        <v>104.96</v>
+        <v>157.8</v>
       </c>
       <c r="D6">
-        <v>253711.59</v>
+        <v>367132.47</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -52449,13 +52041,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1922</v>
+        <v>1872</v>
       </c>
       <c r="C7">
-        <v>163.52</v>
+        <v>164.37</v>
       </c>
       <c r="D7">
-        <v>299491.5</v>
+        <v>382812.75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -52463,13 +52055,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1923</v>
+        <v>1873</v>
       </c>
       <c r="C8">
-        <v>104.96</v>
+        <v>150.44</v>
       </c>
       <c r="D8">
-        <v>253711.59</v>
+        <v>337906.36</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -52477,13 +52069,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1924</v>
+        <v>1874</v>
       </c>
       <c r="C9">
-        <v>163.52</v>
+        <v>174.95</v>
       </c>
       <c r="D9">
-        <v>299491.5</v>
+        <v>568306.3199999999</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -52491,13 +52083,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1707</v>
+        <v>1875</v>
       </c>
       <c r="C10">
-        <v>127.59</v>
+        <v>175.8</v>
       </c>
       <c r="D10">
-        <v>307021.64</v>
+        <v>516915.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C11">
+        <v>179.01</v>
+      </c>
+      <c r="D11">
+        <v>679360.26</v>
       </c>
     </row>
   </sheetData>
